--- a/static/centros.xlsx
+++ b/static/centros.xlsx
@@ -413,14 +413,1923 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>+ DENTAL ALGINET</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>961753366</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>+ DENTAL BENIMACLET</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>963299833</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>+ DENTAL OLIVA S.C.P.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>962854567</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>+ SALUT DENTAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>938039232</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A B PROVENÇA CLINICA DENTAL, SL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>937589782</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A DOCTORA ALLEGUE E OS DENTIHEROES</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>634768100</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A E CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>934760400</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A TUA CLINICA DE SAUDE BUCO DENTAL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>981537132</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AA CLINIC SONRISAS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>988210201</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AAADENTAL 2000 S.L.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>912360030</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AARON AQUILES AMAYA CARDONA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>915344981</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AARVO-SUISSE BADAL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>933078196</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AARVO-SUISSE CENTRO MEDICO, S.L.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>936925649</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AB BIODENTAL DRA. AMPARO BARRACHINA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>963930112</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AB CENTRE DENTAL PALAFRUGELL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>972305274</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A+B CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>971264870</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AB CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>934510077</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A&amp;B DENTAL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>981900200</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AB SANTA COLOMA CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>933923989</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ABAA ASOCIACION LOGISTICA AYUDA S.L.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>915040260</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ABAD CLINICA Y LABORATORIO DENTAL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ABAD SEGOVIA, EDUARDO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>953228257</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ABAD VAZQUEZ, MARIA INMACULADA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630179084</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ABAD Y ANTOLIN, CLINICA DE ORTODONCIA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>976233858</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ABADEN DENTISTAS BLANES</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>972336912</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ABADEN DENTISTAS BARCELONA-DIAGONAL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>932056505</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ABADEN DENTISTAS BARCELONA-VALL D'HEBRON</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>933584103</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ABADEN DENTISTAS GIRONA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>972225154</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ABADEN DENTISTAS TARRAGONA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>977231707</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ABADENT DENTISTAS BARCELONA-SANTS/LES CORTS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>933226263</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ABADENT DENTISTAS LLORET</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>972369065</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ABALO DENTAL, S.L.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>956258554</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ABASCAL MORENTE, FERNANDO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>954373255</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ABBAS ODONTOLOGICA S.L.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ABBAS ODONTOLOGICA S.L.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>913756560</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ABC CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>986411313</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ABC CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>986660859</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ABC DENTAL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>986411313</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ABDELKARIM EL BEIK URBANO</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>952587324</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ABDULLAJ RAJJOUB RAJJOUB</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>915234705</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ABECEDENT</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>650923554</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ABEDENT</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>932188212</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ABEDENT CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>619255034</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ABEDENT CLINICA DENTAL - VALLADARES</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>986375274</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ABEL BARBON FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>985610271</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ABELLAN &amp; PEREZ CLINICA DENTAL CB</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ABELLAN RAIGON, MARIA LOURDES</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>957479776</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ABRAHAN ACOSTA, LAURA GABRIELA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>670340557</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ABRIL ALVARGONZALEZ, RAMON FERNANDO</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>953582228</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AC CENTRO DE ESPECIALIDADES ODONTOLOGICAS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>666330869</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AC DENTISTAS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>936540348</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AC VITAL</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>976463013</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ACADEMIA DENTAL MALLORCA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>971777131</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ACCION CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>981277376</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ACCION DENTAL S.L.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>917391397</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ACEDO DENTAL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ACERO DENTAL MEDICAL</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>655030889</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ACERO HORRILLO, FRANCISCO JAVIER</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>954530111</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ACERODENTAL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>647740629</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ACHIM MATTHIAS VIETZE</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>952613445</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ACIEN REYES, ANA MARIA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>958252563</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ACORDE PLUS, S.L</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ACOSTA CUBERO S.C.P.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>685846402</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ACOSTA DUQUE, GENARO</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>954356415</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ACOSTA DUQUE, GENARO</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>954356415</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ACOSTA MARQUEZ, JOSE FRANCISCO</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>651126109</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ACTIDENT CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ACTUAL DENTAL INSTITUTE</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>646024154</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ACUÃ?A ARANDA, RAFAEL</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>696948744</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ACUÑA ARANDA, JOSE MANUEL</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>958200036</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ACUÑA ARANDA JOSE MANUEL</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>958292971</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>AD ATENCION DENTAL ESPECIALIZADA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>963447778</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>AD DENTAL</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>931186100</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>A.D. DENTAL MELILLA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>952684677</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ADA CELINA DE PAZ GONZALEZ</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ADALCE DENTAL CLINIC</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>604079285</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ADAME ODONTOLOGICA, S.L.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>913756560</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ADAME ODONTOLOGICA S.L</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ADAMES CORDERO , JOSE ENRIQUE</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>647404076</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ADAMUZ GORDO, FERNANDO</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>958206169</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ADAMUZ SALAS, Mª. ANGELES</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>956595017</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ADDAT DENTAL, SL</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>933405400</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ADDENTA CLINICA DENTAL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>986472051</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ADELA SANCHEZ GUERRA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>952543721</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ADELAIDA AFRICA DOMINGUEZ GORDILLO</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>915351604</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ADELAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ADELEV S.L.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>914717226</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ADELMO BUCETA GARCIA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>918518341</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ADELUP DENTAL SLP</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ADEN ODONTOLOGIA INTEGRAL, S.L.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ADENTIS ALCOBENDAS, S.L.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>607739090</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ADENTIS ALCOBENDAS SL</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ADENTIS VENTAS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>918117270</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ADES CENTRO SANITARIO INTEGRAL</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>659625103</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>963455094</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>971717050</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>933040341</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>930181230</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>902530954</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>922 000 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>902530954</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>630382112</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>963528762</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>977249322</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>971550302</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL SA</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>958513347</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL BADAJOZ</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL BENIDORM</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL BURGOS</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>947244902</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL CASTELLON</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL CORUÑA</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>981145145</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL CORUÑA AVDA. OZA</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>981175934</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL FERROL</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>981364266</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL GIRONA</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL LA LAGUNA</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL LAS PALMAS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL LLEIDA</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL LUGO</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>982284506</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL OURENSE</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>988512238</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL PALENCIA</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S. A. U.</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>952873636</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S. A. U.</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>958513347</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S. A. U.</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S. A. U.</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>951965157</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S. A. U.</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S. A. U.</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL S A U</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A,</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>953245188</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>916139295</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, SA</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>932435238</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, SA</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>932894251</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, SA</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>977244049</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, SA</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL S.A.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>917824900</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL S.A.</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>916894765</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL S.A.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/static/centros.xlsx
+++ b/static/centros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2329,6 +2329,246 @@
         </is>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL S.A.</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL SANTIAGO</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>981593961</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>902530954</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>934943818</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>902530954</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>902530954</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>658486866</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/centros.xlsx
+++ b/static/centros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2569,6 +2569,462 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>79347266</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>922000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>922000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>917 824 924</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>922 281 404</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>958833165</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>953506376</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>917824924</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>917824933</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>932311096</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>968226915</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/centros.xlsx
+++ b/static/centros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3025,6 +3025,30 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>914296460</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ADESLAS DENTAL, S.A.U.</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>639409287</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/centros.xlsx
+++ b/static/centros.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>AAADENTAL 2000 S.L.</t>
+          <t>CONSTANZA BARRERA CASTRO</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>912360030</t>
+          <t>607293992</t>
         </is>
       </c>
     </row>
